--- a/wwwroot/EmployeeData.xlsx
+++ b/wwwroot/EmployeeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/EmployeeData/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F69222-A85D-452E-B77E-AB38F0BCC8F0}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2F5D534-4C61-4F07-AC16-E53BEB9F0F90}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,77 +22,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>ABL/GBL</t>
+  </si>
+  <si>
+    <t>SL/GBL</t>
+  </si>
+  <si>
+    <t>TL Name</t>
+  </si>
+  <si>
+    <t>TL Name Aggr.</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>POD Name</t>
+  </si>
+  <si>
+    <t>New POD in 2025</t>
+  </si>
+  <si>
+    <t>Altria POD Owner</t>
+  </si>
+  <si>
+    <t>ALCS Director</t>
+  </si>
+  <si>
+    <t>GGID</t>
+  </si>
+  <si>
+    <t>Emp Id</t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Global Grade</t>
+  </si>
+  <si>
+    <t>Active Y/N</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
+    <t>Role in Contract</t>
+  </si>
+  <si>
+    <t>Role in POD</t>
+  </si>
+  <si>
+    <t>Altria Exp</t>
+  </si>
+  <si>
+    <t>Overall Exp</t>
+  </si>
+  <si>
+    <t>Skill Set</t>
+  </si>
+  <si>
+    <t>Apps #</t>
+  </si>
+  <si>
+    <t>Data #</t>
+  </si>
+  <si>
+    <t>Industry #</t>
+  </si>
+  <si>
+    <t>Prog Mgmt/Agile/Others #</t>
+  </si>
+  <si>
+    <t>Certification Names</t>
+  </si>
+  <si>
+    <t>Offshore Backup</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Monthly Price</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EM MAIL id</t>
+  </si>
+  <si>
+    <t>C&amp;CA</t>
+  </si>
+  <si>
+    <t>sainikhilgodl@gmail.com</t>
+  </si>
   <si>
     <t>sai</t>
   </si>
   <si>
-    <t>sainikhilgodl@gmail.com</t>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2024-12-04</t>
+    <t>Dotnet</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Offshore City</t>
+  </si>
+  <si>
+    <t>BGV</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>I&amp;D</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Dotnet</t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>POD Name</t>
-  </si>
-  <si>
-    <t>Offshore City</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Tower</t>
-  </si>
-  <si>
-    <t>Global Grade</t>
-  </si>
-  <si>
-    <t>BGV</t>
-  </si>
-  <si>
     <t>Azure Migration</t>
   </si>
   <si>
@@ -109,12 +253,6 @@
   </si>
   <si>
     <t>Started</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C&amp;CA</t>
   </si>
   <si>
     <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
@@ -655,10 +793,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-  </numFmts>
-  <fonts count="7">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -694,12 +830,18 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +858,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -772,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
@@ -816,21 +964,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS5"/>
+  <dimension ref="A1:DZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1200,134 +1343,13 @@
     <col min="46" max="46" width="8.7265625" customWidth="1" style="7"/>
     <col min="47" max="47" width="10.36328125" customWidth="1" style="7"/>
     <col min="48" max="48" width="11.54296875" customWidth="1" style="7"/>
-    <col min="49" max="58" width="8.7265625" customWidth="1" style="7"/>
-    <col min="59" max="16384" width="8.7265625" customWidth="1" style="7"/>
+    <col min="49" max="67" width="8.7265625" customWidth="1" style="7"/>
+    <col min="68" max="16384" width="8.7265625" customWidth="1" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" s="29" customFormat="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27"/>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27"/>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27"/>
-      <c r="CU1" s="27"/>
-      <c r="CV1" s="27"/>
-      <c r="CW1" s="27"/>
-      <c r="CX1" s="27"/>
-      <c r="CY1" s="27"/>
-      <c r="CZ1" s="27"/>
-      <c r="DA1" s="27"/>
-      <c r="DB1" s="27"/>
-      <c r="DC1" s="27"/>
-      <c r="DD1" s="27"/>
-      <c r="DE1" s="27"/>
-      <c r="DF1" s="27"/>
-      <c r="DG1" s="27"/>
-      <c r="DH1" s="27"/>
-      <c r="DI1" s="27"/>
-      <c r="DJ1" s="27"/>
-      <c r="DK1" s="27"/>
-      <c r="DL1" s="27"/>
-      <c r="DM1" s="27"/>
-      <c r="DN1" s="27"/>
-      <c r="DO1" s="27"/>
-      <c r="DP1" s="27"/>
-      <c r="DQ1" s="27"/>
-      <c r="DR1" s="27"/>
-      <c r="DS1" s="27"/>
+    <row r="1">
+      <c r="C1"/>
+      <c r="G1"/>
     </row>
     <row r="2">
       <c r="C2"/>
@@ -1340,58 +1362,446 @@
     <row r="4">
       <c r="C4"/>
       <c r="G4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7">
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AG4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+    </row>
+    <row r="5" s="28" customFormat="1">
+      <c r="A5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="C5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="BL5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="CB5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="CD5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="CO5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="CQ5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="CR5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="CT5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="CU5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CV5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CW5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="CY5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="CZ5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="DD5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="DE5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="DH5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="DK5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="DM5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="DN5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="DP5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="DQ5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="DR5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="DS5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="DT5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="DU5" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="0">
         <v>3</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>12</v>
+      <c r="AB6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="DV6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="DW6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="DX6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="DY6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="DZ6" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1423,341 +1833,341 @@
   <sheetData>
     <row r="1" s="5" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C2" s="11">
         <v>101025223</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11">
         <v>101082220</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C4" s="11">
         <v>101075016</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C5" s="11">
         <v>101070251</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C6" s="11">
         <v>101025264</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C7" s="11">
         <v>101025227</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="11">
         <v>101049502</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="8" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="16"/>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="8" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="8" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="3"/>
@@ -1767,10 +2177,10 @@
       <c r="B13" s="6"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1784,10 +2194,10 @@
       <c r="B14" s="6"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1801,10 +2211,10 @@
       <c r="B15" s="6"/>
       <c r="C15" s="18"/>
       <c r="D15" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1818,10 +2228,10 @@
       <c r="B16" s="6"/>
       <c r="C16" s="18"/>
       <c r="D16" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1835,10 +2245,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="18"/>
       <c r="D17" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1852,10 +2262,10 @@
       <c r="B18" s="6"/>
       <c r="C18" s="18"/>
       <c r="D18" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1869,10 +2279,10 @@
       <c r="B19" s="6"/>
       <c r="C19" s="19"/>
       <c r="D19" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1886,10 +2296,10 @@
       <c r="B20" s="6"/>
       <c r="C20" s="18"/>
       <c r="D20" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1903,10 +2313,10 @@
       <c r="B21" s="6"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1920,10 +2330,10 @@
       <c r="B22" s="6"/>
       <c r="C22" s="18"/>
       <c r="D22" s="15" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1937,10 +2347,10 @@
       <c r="B23" s="6"/>
       <c r="C23" s="19"/>
       <c r="D23" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1954,10 +2364,10 @@
       <c r="B24" s="6"/>
       <c r="C24" s="18"/>
       <c r="D24" s="15" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1971,10 +2381,10 @@
       <c r="B25" s="6"/>
       <c r="C25" s="18"/>
       <c r="D25" s="15" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1988,10 +2398,10 @@
       <c r="B26" s="6"/>
       <c r="C26" s="18"/>
       <c r="D26" s="15" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2005,10 +2415,10 @@
       <c r="B27" s="6"/>
       <c r="C27" s="18"/>
       <c r="D27" s="15" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2022,10 +2432,10 @@
       <c r="B28" s="6"/>
       <c r="C28" s="18"/>
       <c r="D28" s="15" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2039,10 +2449,10 @@
       <c r="B29" s="6"/>
       <c r="C29" s="18"/>
       <c r="D29" s="15" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2056,10 +2466,10 @@
       <c r="B30" s="6"/>
       <c r="C30" s="18"/>
       <c r="D30" s="15" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2073,10 +2483,10 @@
       <c r="B31" s="6"/>
       <c r="C31" s="18"/>
       <c r="D31" s="15" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2090,10 +2500,10 @@
       <c r="B32" s="6"/>
       <c r="C32" s="18"/>
       <c r="D32" s="15" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2107,10 +2517,10 @@
       <c r="B33" s="6"/>
       <c r="C33" s="18"/>
       <c r="D33" s="15" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2124,10 +2534,10 @@
       <c r="B34" s="6"/>
       <c r="C34" s="18"/>
       <c r="D34" s="12" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2141,10 +2551,10 @@
       <c r="B35" s="6"/>
       <c r="C35" s="18"/>
       <c r="D35" s="12" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2158,10 +2568,10 @@
       <c r="B36" s="6"/>
       <c r="C36" s="18"/>
       <c r="D36" s="12" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2175,10 +2585,10 @@
       <c r="B37" s="6"/>
       <c r="C37" s="18"/>
       <c r="D37" s="12" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2192,10 +2602,10 @@
       <c r="B38" s="6"/>
       <c r="C38" s="18"/>
       <c r="D38" s="12" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2209,10 +2619,10 @@
       <c r="B39" s="6"/>
       <c r="C39" s="18"/>
       <c r="D39" s="12" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2226,10 +2636,10 @@
       <c r="B40" s="6"/>
       <c r="C40" s="18"/>
       <c r="D40" s="12" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2243,10 +2653,10 @@
       <c r="B41" s="6"/>
       <c r="C41" s="18"/>
       <c r="D41" s="12" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2260,10 +2670,10 @@
       <c r="B42" s="6"/>
       <c r="C42" s="16"/>
       <c r="D42" s="12" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2277,10 +2687,10 @@
       <c r="B43" s="6"/>
       <c r="C43" s="16"/>
       <c r="D43" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2294,10 +2704,10 @@
       <c r="B44" s="6"/>
       <c r="C44" s="16"/>
       <c r="D44" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2311,10 +2721,10 @@
       <c r="B45" s="6"/>
       <c r="C45" s="16"/>
       <c r="D45" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2328,10 +2738,10 @@
       <c r="B46" s="6"/>
       <c r="C46" s="16"/>
       <c r="D46" s="12" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2345,10 +2755,10 @@
       <c r="B47" s="6"/>
       <c r="C47" s="16"/>
       <c r="D47" s="12" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2362,10 +2772,10 @@
       <c r="B48" s="6"/>
       <c r="C48" s="16"/>
       <c r="D48" s="12" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2379,10 +2789,10 @@
       <c r="B49" s="6"/>
       <c r="C49" s="16"/>
       <c r="D49" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2396,10 +2806,10 @@
       <c r="B50" s="6"/>
       <c r="C50" s="16"/>
       <c r="D50" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2413,10 +2823,10 @@
       <c r="B51" s="6"/>
       <c r="C51" s="16"/>
       <c r="D51" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2430,10 +2840,10 @@
       <c r="B52" s="6"/>
       <c r="C52" s="16"/>
       <c r="D52" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2447,10 +2857,10 @@
       <c r="B53" s="6"/>
       <c r="C53" s="16"/>
       <c r="D53" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2464,10 +2874,10 @@
       <c r="B54" s="6"/>
       <c r="C54" s="16"/>
       <c r="D54" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2481,10 +2891,10 @@
       <c r="B55" s="6"/>
       <c r="C55" s="16"/>
       <c r="D55" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2498,10 +2908,10 @@
       <c r="B56" s="6"/>
       <c r="C56" s="16"/>
       <c r="D56" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2515,10 +2925,10 @@
       <c r="B57" s="6"/>
       <c r="C57" s="16"/>
       <c r="D57" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -2532,10 +2942,10 @@
       <c r="B58" s="6"/>
       <c r="C58" s="16"/>
       <c r="D58" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2549,10 +2959,10 @@
       <c r="B59" s="6"/>
       <c r="C59" s="16"/>
       <c r="D59" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2566,10 +2976,10 @@
       <c r="B60" s="6"/>
       <c r="C60" s="16"/>
       <c r="D60" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2583,10 +2993,10 @@
       <c r="B61" s="6"/>
       <c r="C61" s="16"/>
       <c r="D61" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2600,10 +3010,10 @@
       <c r="B62" s="6"/>
       <c r="C62" s="16"/>
       <c r="D62" s="12" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -2617,10 +3027,10 @@
       <c r="B63" s="6"/>
       <c r="C63" s="16"/>
       <c r="D63" s="12" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -2634,10 +3044,10 @@
       <c r="B64" s="6"/>
       <c r="C64" s="16"/>
       <c r="D64" s="12" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2651,10 +3061,10 @@
       <c r="B65" s="6"/>
       <c r="C65" s="16"/>
       <c r="D65" s="12" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -2668,10 +3078,10 @@
       <c r="B66" s="6"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -2685,10 +3095,10 @@
       <c r="B67" s="6"/>
       <c r="C67" s="19"/>
       <c r="D67" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -2702,10 +3112,10 @@
       <c r="B68" s="6"/>
       <c r="C68" s="19"/>
       <c r="D68" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2719,10 +3129,10 @@
       <c r="B69" s="6"/>
       <c r="C69" s="19"/>
       <c r="D69" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2736,10 +3146,10 @@
       <c r="B70" s="6"/>
       <c r="C70" s="19"/>
       <c r="D70" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -2753,10 +3163,10 @@
       <c r="B71" s="6"/>
       <c r="C71" s="19"/>
       <c r="D71" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -2770,10 +3180,10 @@
       <c r="B72" s="6"/>
       <c r="C72" s="19"/>
       <c r="D72" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -2787,10 +3197,10 @@
       <c r="B73" s="6"/>
       <c r="C73" s="19"/>
       <c r="D73" s="12" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -2804,10 +3214,10 @@
       <c r="B74" s="6"/>
       <c r="C74" s="19"/>
       <c r="D74" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -2821,10 +3231,10 @@
       <c r="B75" s="6"/>
       <c r="C75" s="19"/>
       <c r="D75" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -2838,10 +3248,10 @@
       <c r="B76" s="6"/>
       <c r="C76" s="19"/>
       <c r="D76" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -2855,10 +3265,10 @@
       <c r="B77" s="6"/>
       <c r="C77" s="19"/>
       <c r="D77" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -2872,10 +3282,10 @@
       <c r="B78" s="6"/>
       <c r="C78" s="19"/>
       <c r="D78" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -2889,10 +3299,10 @@
       <c r="B79" s="6"/>
       <c r="C79" s="19"/>
       <c r="D79" s="12" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -2906,10 +3316,10 @@
       <c r="B80" s="6"/>
       <c r="C80" s="19"/>
       <c r="D80" s="12" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -2923,10 +3333,10 @@
       <c r="B81" s="6"/>
       <c r="C81" s="19"/>
       <c r="D81" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -2940,10 +3350,10 @@
       <c r="B82" s="6"/>
       <c r="C82" s="19"/>
       <c r="D82" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -2957,10 +3367,10 @@
       <c r="B83" s="6"/>
       <c r="C83" s="19"/>
       <c r="D83" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -2974,10 +3384,10 @@
       <c r="B84" s="6"/>
       <c r="C84" s="19"/>
       <c r="D84" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -2991,10 +3401,10 @@
       <c r="B85" s="6"/>
       <c r="C85" s="19"/>
       <c r="D85" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -3008,10 +3418,10 @@
       <c r="B86" s="6"/>
       <c r="C86" s="19"/>
       <c r="D86" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3025,10 +3435,10 @@
       <c r="B87" s="6"/>
       <c r="C87" s="19"/>
       <c r="D87" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -3042,10 +3452,10 @@
       <c r="B88" s="6"/>
       <c r="C88" s="19"/>
       <c r="D88" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -3059,10 +3469,10 @@
       <c r="B89" s="6"/>
       <c r="C89" s="19"/>
       <c r="D89" s="12" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -3076,10 +3486,10 @@
       <c r="B90" s="6"/>
       <c r="C90" s="19"/>
       <c r="D90" s="12" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3093,10 +3503,10 @@
       <c r="B91" s="6"/>
       <c r="C91" s="19"/>
       <c r="D91" s="12" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3110,10 +3520,10 @@
       <c r="B92" s="6"/>
       <c r="C92" s="19"/>
       <c r="D92" s="12" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3127,10 +3537,10 @@
       <c r="B93" s="6"/>
       <c r="C93" s="19"/>
       <c r="D93" s="12" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3144,10 +3554,10 @@
       <c r="B94" s="6"/>
       <c r="C94" s="16"/>
       <c r="D94" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -3161,10 +3571,10 @@
       <c r="B95" s="6"/>
       <c r="C95" s="19"/>
       <c r="D95" s="12" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3178,10 +3588,10 @@
       <c r="B96" s="6"/>
       <c r="C96" s="19"/>
       <c r="D96" s="12" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3195,10 +3605,10 @@
       <c r="B97" s="6"/>
       <c r="C97" s="16"/>
       <c r="D97" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -3212,10 +3622,10 @@
       <c r="B98" s="6"/>
       <c r="C98" s="19"/>
       <c r="D98" s="12" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -3229,10 +3639,10 @@
       <c r="B99" s="6"/>
       <c r="C99" s="19"/>
       <c r="D99" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -3246,10 +3656,10 @@
       <c r="B100" s="6"/>
       <c r="C100" s="19"/>
       <c r="D100" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -3263,10 +3673,10 @@
       <c r="B101" s="6"/>
       <c r="C101" s="19"/>
       <c r="D101" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -3280,10 +3690,10 @@
       <c r="B102" s="6"/>
       <c r="C102" s="19"/>
       <c r="D102" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -3297,10 +3707,10 @@
       <c r="B103" s="6"/>
       <c r="C103" s="19"/>
       <c r="D103" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -3314,10 +3724,10 @@
       <c r="B104" s="6"/>
       <c r="C104" s="19"/>
       <c r="D104" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -3331,10 +3741,10 @@
       <c r="B105" s="6"/>
       <c r="C105" s="19"/>
       <c r="D105" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -3348,10 +3758,10 @@
       <c r="B106" s="6"/>
       <c r="C106" s="19"/>
       <c r="D106" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -3365,10 +3775,10 @@
       <c r="B107" s="6"/>
       <c r="C107" s="19"/>
       <c r="D107" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -3382,10 +3792,10 @@
       <c r="B108" s="6"/>
       <c r="C108" s="19"/>
       <c r="D108" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -3399,10 +3809,10 @@
       <c r="B109" s="6"/>
       <c r="C109" s="19"/>
       <c r="D109" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -3416,10 +3826,10 @@
       <c r="B110" s="6"/>
       <c r="C110" s="19"/>
       <c r="D110" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -3433,10 +3843,10 @@
       <c r="B111" s="6"/>
       <c r="C111" s="19"/>
       <c r="D111" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -3450,10 +3860,10 @@
       <c r="B112" s="6"/>
       <c r="C112" s="19"/>
       <c r="D112" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -3467,7 +3877,7 @@
       <c r="B113" s="6"/>
       <c r="C113" s="19"/>
       <c r="D113" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -3482,7 +3892,7 @@
       <c r="B114" s="6"/>
       <c r="C114" s="19"/>
       <c r="D114" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -3497,7 +3907,7 @@
       <c r="B115" s="6"/>
       <c r="C115" s="19"/>
       <c r="D115" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -3512,7 +3922,7 @@
       <c r="B116" s="6"/>
       <c r="C116" s="19"/>
       <c r="D116" s="12" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -3527,7 +3937,7 @@
       <c r="B117" s="6"/>
       <c r="C117" s="19"/>
       <c r="D117" s="12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -3542,7 +3952,7 @@
       <c r="B118" s="6"/>
       <c r="C118" s="19"/>
       <c r="D118" s="12" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -3557,7 +3967,7 @@
       <c r="B119" s="6"/>
       <c r="C119" s="19"/>
       <c r="D119" s="12" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="6"/>
@@ -3572,7 +3982,7 @@
       <c r="B120" s="6"/>
       <c r="C120" s="19"/>
       <c r="D120" s="12" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="6"/>
@@ -3587,7 +3997,7 @@
       <c r="B121" s="6"/>
       <c r="C121" s="19"/>
       <c r="D121" s="12" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -3602,7 +4012,7 @@
       <c r="B122" s="6"/>
       <c r="C122" s="19"/>
       <c r="D122" s="12" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -3617,7 +4027,7 @@
       <c r="B123" s="6"/>
       <c r="C123" s="19"/>
       <c r="D123" s="12" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
@@ -3632,7 +4042,7 @@
       <c r="B124" s="6"/>
       <c r="C124" s="19"/>
       <c r="D124" s="12" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
@@ -3647,7 +4057,7 @@
       <c r="B125" s="6"/>
       <c r="C125" s="19"/>
       <c r="D125" s="12" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="6"/>
@@ -3662,7 +4072,7 @@
       <c r="B126" s="6"/>
       <c r="C126" s="19"/>
       <c r="D126" s="12" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
@@ -3677,7 +4087,7 @@
       <c r="B127" s="6"/>
       <c r="C127" s="19"/>
       <c r="D127" s="12" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
@@ -3692,7 +4102,7 @@
       <c r="B128" s="6"/>
       <c r="C128" s="19"/>
       <c r="D128" s="12" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="6"/>
@@ -3707,7 +4117,7 @@
       <c r="B129" s="6"/>
       <c r="C129" s="19"/>
       <c r="D129" s="12" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="6"/>
@@ -3722,7 +4132,7 @@
       <c r="B130" s="6"/>
       <c r="C130" s="19"/>
       <c r="D130" s="12" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="6"/>
@@ -3737,7 +4147,7 @@
       <c r="B131" s="6"/>
       <c r="C131" s="19"/>
       <c r="D131" s="12" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="6"/>
@@ -3752,7 +4162,7 @@
       <c r="B132" s="6"/>
       <c r="C132" s="19"/>
       <c r="D132" s="12" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="6"/>
@@ -3767,7 +4177,7 @@
       <c r="B133" s="6"/>
       <c r="C133" s="19"/>
       <c r="D133" s="12" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="6"/>

--- a/wwwroot/EmployeeData.xlsx
+++ b/wwwroot/EmployeeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/EmployeeData/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2F5D534-4C61-4F07-AC16-E53BEB9F0F90}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A498C378-DBBC-48D9-8C47-9BB59296475E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,28 @@
     <sheet name="Dropdown" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>Type</t>
   </si>
@@ -183,192 +199,497 @@
     <t>EM MAIL id</t>
   </si>
   <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Products Enterprise</t>
+  </si>
+  <si>
+    <t>GABL</t>
+  </si>
+  <si>
     <t>C&amp;CA</t>
   </si>
   <si>
-    <t>sainikhilgodl@gmail.com</t>
-  </si>
-  <si>
-    <t>sai</t>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t>EUE Project Services</t>
+  </si>
+  <si>
+    <t>AD Project</t>
+  </si>
+  <si>
+    <t>Neuman, Ran</t>
+  </si>
+  <si>
+    <t>8520_46121149</t>
+  </si>
+  <si>
+    <t>leela-vathi.velupuri@capgemini.com</t>
+  </si>
+  <si>
+    <t>Velupuri, Leela Vathi</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>AD Work</t>
+  </si>
+  <si>
+    <t>NA_50565611</t>
+  </si>
+  <si>
+    <t>haili.welton@capgemini.com</t>
+  </si>
+  <si>
+    <t>Welton, Haili</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>ALTRIA_NJOY Systs Migr CRT</t>
+  </si>
+  <si>
+    <t>Delphia Daisy Lackey</t>
+  </si>
+  <si>
+    <t>8520_46038559</t>
+  </si>
+  <si>
+    <t>sirisha.manchala@capgemini.com</t>
+  </si>
+  <si>
+    <t>Manchala, Sirisha</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NA_50440278</t>
+  </si>
+  <si>
+    <t>emily.harp@capgemini.com</t>
+  </si>
+  <si>
+    <t>Harp, Emily Claire</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NA_50130324</t>
+  </si>
+  <si>
+    <t>vamshi-krishna.bethi@capgemini.com</t>
+  </si>
+  <si>
+    <t>Bethi, Vamshi Krishna</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mechanicsville</t>
+  </si>
+  <si>
+    <t>Integration Developer</t>
+  </si>
+  <si>
+    <t>PA Consulting &amp; CRT</t>
+  </si>
+  <si>
+    <t>Maureen.A.Murphy</t>
+  </si>
+  <si>
+    <t>8520_46220341</t>
+  </si>
+  <si>
+    <t>darapureddy-sai.chaitanya@capgemini.com</t>
+  </si>
+  <si>
+    <t>Chaitanya, Darapureddy Sai</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>NA_50129173</t>
+  </si>
+  <si>
+    <t>sree-harsha.alleshwaram@capgemini.com</t>
+  </si>
+  <si>
+    <t>Alleshwaram, Sree Harsha</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>101133026_1</t>
+  </si>
+  <si>
+    <t>ALTRIA_Workforce Upgrade'24</t>
+  </si>
+  <si>
+    <t>Workforce Management</t>
+  </si>
+  <si>
+    <t>NA_50491911</t>
+  </si>
+  <si>
+    <t>fabian.anderson@capgemini.com</t>
+  </si>
+  <si>
+    <t>Anderson, Fabian A</t>
+  </si>
+  <si>
+    <t>Bloomfield</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>LD_AE</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Bejugam, Raghavendra</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2H_Enterpr Arch 2025</t>
+  </si>
+  <si>
+    <t>EA-Azure Architect</t>
+  </si>
+  <si>
+    <t>Jennifer V</t>
+  </si>
+  <si>
+    <t>Kevin Gordon</t>
+  </si>
+  <si>
+    <t>NA_2113021</t>
+  </si>
+  <si>
+    <t>eddie.kao@capgemini.com</t>
+  </si>
+  <si>
+    <t>Kao, Eddie C.</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Darien</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>ABL</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2A_AGDC Sales 2025</t>
+  </si>
+  <si>
+    <t>AIS</t>
+  </si>
+  <si>
+    <t>NA_50128055</t>
+  </si>
+  <si>
+    <t>sandeep.chinnam@capgemini.com</t>
+  </si>
+  <si>
+    <t>Chinnam, Sandeep</t>
+  </si>
+  <si>
+    <t>Henrico</t>
+  </si>
+  <si>
+    <t>CTG2</t>
+  </si>
+  <si>
+    <t>.NET,SQL Server, Azure Data Factory, Power BI</t>
+  </si>
+  <si>
+    <t>DP-203,AI-900,AZ-900</t>
+  </si>
+  <si>
+    <t>Core - Cross Functional</t>
+  </si>
+  <si>
+    <t>NA_50130288</t>
+  </si>
+  <si>
+    <t>sunil-dutt.ananthula@capgemini.com</t>
+  </si>
+  <si>
+    <t>Ananthula, Sunil Dutt</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Moseley</t>
+  </si>
+  <si>
+    <t>Architecture,Scrum Master,Cosmos DB,PYSpark,Python,Angular Js, React JS, SQL Server,C#,.NET,ASP.NET,MVC,Azure APIM, Azure Logic/Power Apps,Azure Data Factory, Power BI, Databricks, Datalake, Azure Functions</t>
+  </si>
+  <si>
+    <t>AI 102 ;SAFe Scrum Master</t>
+  </si>
+  <si>
+    <t>NA_50249262</t>
+  </si>
+  <si>
+    <t>krishna-rao.maturi@capgemini.com</t>
+  </si>
+  <si>
+    <t>Maturi, Krishna Rao</t>
+  </si>
+  <si>
+    <t>SQL Server , SSIS , SSRS, Azure Datafactory , Databricks , Azure Datalake , Synapse , Azure Function Apps , Delta Lakes</t>
+  </si>
+  <si>
+    <t>AZ 900 , AI 900</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>NA_50127792</t>
+  </si>
+  <si>
+    <t>roopesh.venkataramana@capgemini.com</t>
+  </si>
+  <si>
+    <t>Pasupuleti, Roopesh V</t>
+  </si>
+  <si>
+    <t>Glen Allen</t>
+  </si>
+  <si>
+    <t>Senior Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Tools: Quality Center/ALM, ReadyAPI, TestComplete, TOSCA, Azure DevOps
+Tracking Tools: Quality Center, Test Plan (Azure DevOps)
+Microsoft Office Tools: MS Word, MS Excel, PowerPoint, Access</t>
+  </si>
+  <si>
+    <t>Connected Manager Certified (Capgemini);Certified Scrum Master (CSM);SAFe Trained Agilist</t>
+  </si>
+  <si>
+    <t>GBL</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>8520_46036041</t>
+  </si>
+  <si>
+    <t>muktapuram-parthasarathi.reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muktapuram Parthasarathi </t>
+  </si>
+  <si>
+    <t>CTG1</t>
+  </si>
+  <si>
+    <t>8520_108378</t>
+  </si>
+  <si>
+    <t>madhu-murthy.nagasuri@capgemini.com</t>
+  </si>
+  <si>
+    <t>Nagasuri, Madhu Murthy</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>.Net Full Stack; SQL; Azure Development</t>
+  </si>
+  <si>
+    <t>Agile Software Developer(Coursera);AI-900 : Microsoft Azure AI Fundamentals;Consumer Products &amp; Retail Industry Campus</t>
+  </si>
+  <si>
+    <t>Azure Migration</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
+    <t>Dotnet</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>$ 36.00</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>09-12-2024</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Offshore City</t>
+  </si>
+  <si>
+    <t>BGV</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>I&amp;D</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Dotnet</t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
+    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Offshore City</t>
-  </si>
-  <si>
-    <t>BGV</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>I&amp;D</t>
-  </si>
-  <si>
-    <t>Azure Migration</t>
-  </si>
-  <si>
-    <t>AD Project</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
-  </si>
-  <si>
-    <t>NOIDA</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>INVENT</t>
   </si>
   <si>
-    <t>EUE Project Services</t>
-  </si>
-  <si>
     <t>KOLKATTA</t>
   </si>
   <si>
     <t>Consumer</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Rejected</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>I&amp;D (FS)</t>
   </si>
   <si>
-    <t>AD Work</t>
-  </si>
-  <si>
     <t>MUMBAI</t>
   </si>
   <si>
-    <t>LD_AE</t>
-  </si>
-  <si>
-    <t>CSC</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>ALTRIA_NJOY Systs Migr CRT</t>
-  </si>
-  <si>
-    <t>HYDERABAD</t>
-  </si>
-  <si>
     <t>LD_AM</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>ER&amp;D</t>
   </si>
   <si>
-    <t>PA Consulting &amp; CRT</t>
-  </si>
-  <si>
     <t>CHENNAI</t>
   </si>
   <si>
     <t>Governance</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>Auto Desk Upgrade</t>
   </si>
   <si>
     <t>BANGALURU</t>
   </si>
   <si>
-    <t>Products Enterprise</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>ALTRIA_Workforce Upgrade'24</t>
-  </si>
-  <si>
-    <t>Workforce Management</t>
-  </si>
-  <si>
     <t>BHUBANESWAR</t>
   </si>
   <si>
@@ -402,15 +723,6 @@
     <t>Subcon</t>
   </si>
   <si>
-    <t>ALTRIA_AE_2A_AGDC Sales 2025</t>
-  </si>
-  <si>
-    <t>AIS</t>
-  </si>
-  <si>
-    <t>Core - Cross Functional</t>
-  </si>
-  <si>
     <t>CIS_ALTRIA_AE_2A_AGDC Sales 2025</t>
   </si>
   <si>
@@ -493,12 +805,6 @@
   </si>
   <si>
     <t>DM-Ops - Ops Support</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2H_Enterpr Arch 2025</t>
-  </si>
-  <si>
-    <t>EA-Azure Architect</t>
   </si>
   <si>
     <t>NJOY PWA</t>
@@ -793,8 +1099,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -839,6 +1148,34 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -917,10 +1254,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
@@ -974,11 +1312,137 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -989,6 +1453,433 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Roster Latest"/>
+      <sheetName val="Roster"/>
+      <sheetName val="Tech TranS Tower"/>
+      <sheetName val="Pricing Group"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Onshore-CTG1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Core Technology Grp1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Basic Programming Languages, General Business Analysis  &amp; Manual Testing</v>
+          </cell>
+          <cell r="D2">
+            <v>19055</v>
+          </cell>
+          <cell r="E2">
+            <v>19436.099999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>115.69107142857142</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Offshore-CTG1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Core Technology Grp1</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Basic Programming Languages, General Business Analysis  &amp; Manual Testing</v>
+          </cell>
+          <cell r="D3">
+            <v>5460</v>
+          </cell>
+          <cell r="E3">
+            <v>5651.0999999999995</v>
+          </cell>
+          <cell r="F3">
+            <v>29.9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Onshore-CTG2</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Core Technology Grp2</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Azure, AWS, Google Cloud, C#, Java,SQL, SSIS, Power Platform</v>
+          </cell>
+          <cell r="D4">
+            <v>22660</v>
+          </cell>
+          <cell r="E4">
+            <v>23113.200000000001</v>
+          </cell>
+          <cell r="F4">
+            <v>137.57857142857142</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Offshore-CTG2</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Core Technology Grp2</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Azure, AWS, Google Cloud, C#, Java,SQL, SSIS, Power Platform</v>
+          </cell>
+          <cell r="D5">
+            <v>5775</v>
+          </cell>
+          <cell r="E5">
+            <v>5977.1249999999991</v>
+          </cell>
+          <cell r="F5">
+            <v>31.624999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Onshore-CTG3</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Core Technology Grp3</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Packaged Applications (SAP, Oracle etc.), Functional, Technical</v>
+          </cell>
+          <cell r="D6">
+            <v>24720</v>
+          </cell>
+          <cell r="E6">
+            <v>25214.400000000001</v>
+          </cell>
+          <cell r="F6">
+            <v>150.08571428571429</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Offshore-CTG3</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Core Technology Grp3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Packaged Applications (SAP, Oracle etc.), Functional, Technical</v>
+          </cell>
+          <cell r="D7">
+            <v>6300</v>
+          </cell>
+          <cell r="E7">
+            <v>6520.4999999999991</v>
+          </cell>
+          <cell r="F7">
+            <v>34.499999999999993</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Onshore-NTG1</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Advanced Technology Grp1</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v xml:space="preserve">Databricks, Salesforce, UI development, Full Stack </v>
+          </cell>
+          <cell r="D8">
+            <v>25750</v>
+          </cell>
+          <cell r="E8">
+            <v>26265</v>
+          </cell>
+          <cell r="F8">
+            <v>156.33928571428572</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Offshore-NTG1</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Advanced Technology Grp1</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v xml:space="preserve">Databricks, Salesforce, UI development, Full Stack </v>
+          </cell>
+          <cell r="D9">
+            <v>6350.4000000000005</v>
+          </cell>
+          <cell r="E9">
+            <v>6572.6639999999998</v>
+          </cell>
+          <cell r="F9">
+            <v>34.775999999999996</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Onshore-NTG2</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Advanced Technology Grp2</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>JDA, Work Brain, Data Quality Development</v>
+          </cell>
+          <cell r="D10">
+            <v>28552</v>
+          </cell>
+          <cell r="E10">
+            <v>29123.040000000001</v>
+          </cell>
+          <cell r="F10">
+            <v>173.35142857142858</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Offshore-NTG2</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Advanced Technology Grp2</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>JDA, Work Brain, Data Quality Development</v>
+          </cell>
+          <cell r="D11">
+            <v>6825</v>
+          </cell>
+          <cell r="E11">
+            <v>7063.8749999999991</v>
+          </cell>
+          <cell r="F11">
+            <v>37.374999999999993</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Onshore-NTG3</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Advanced Technology Grp3</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Domain, Machine Learning, Data Science
+Data Architecture (Quality &amp; eng), Data Science, SME's,  PLM</v>
+          </cell>
+          <cell r="D12">
+            <v>30900</v>
+          </cell>
+          <cell r="E12">
+            <v>31518</v>
+          </cell>
+          <cell r="F12">
+            <v>187.60714285714286</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Offshore-NTG3</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Advanced Technology Grp3</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Domain, Machine Learning, Data Science
+Data Architecture (Quality &amp; eng), Data Science, SME's,  PLM</v>
+          </cell>
+          <cell r="D13">
+            <v>6825</v>
+          </cell>
+          <cell r="E13">
+            <v>7063.8749999999991</v>
+          </cell>
+          <cell r="F13">
+            <v>37.374999999999993</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Onshore-ARCT</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Transformation</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Business, Domain, Security &amp; Security Architecture, Agile Coaching, Release Train Engineer (RTE) etc.</v>
+          </cell>
+          <cell r="D14">
+            <v>43260</v>
+          </cell>
+          <cell r="E14">
+            <v>44125.200000000004</v>
+          </cell>
+          <cell r="F14">
+            <v>262.65000000000003</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Offshore-ARCT</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Transformation</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Business, Domain, Security &amp; Security Architecture, Agile Coaching, Release Train Engineer (RTE) etc.</v>
+          </cell>
+          <cell r="D15">
+            <v>7350</v>
+          </cell>
+          <cell r="E15">
+            <v>7607.2499999999991</v>
+          </cell>
+          <cell r="F15">
+            <v>40.249999999999993</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Onshore-CF</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Program / POD Management</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>PMs,Scrum Master, POD Leaders</v>
+          </cell>
+          <cell r="D16">
+            <v>25750</v>
+          </cell>
+          <cell r="E16">
+            <v>26265</v>
+          </cell>
+          <cell r="F16">
+            <v>156.33928571428572</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Offshore-CF</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Program / POD Management</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>PMs,Scrum Master, POD Leaders</v>
+          </cell>
+          <cell r="D17">
+            <v>6300</v>
+          </cell>
+          <cell r="E17">
+            <v>6520.4999999999991</v>
+          </cell>
+          <cell r="F17">
+            <v>34.499999999999993</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Onshore-SPL</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Niche Technology - Architect, Functional Expert</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Architect, Functional Expert</v>
+          </cell>
+          <cell r="D18">
+            <v>36500</v>
+          </cell>
+          <cell r="E18">
+            <v>37230</v>
+          </cell>
+          <cell r="F18">
+            <v>221.60714285714286</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Offshore-SPL</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Niche Technology - Architect, Functional Expert</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Architect, Functional Expert</v>
+          </cell>
+          <cell r="D19">
+            <v>6500</v>
+          </cell>
+          <cell r="E19">
+            <v>6727.4999999999991</v>
+          </cell>
+          <cell r="F19">
+            <v>35.595238095238088</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Onshore-None</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Offshore-None</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>None</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DZ6"/>
+  <dimension ref="A1:EC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,7 +2211,8 @@
     <col min="2" max="3" width="8.7265625" customWidth="1" style="7"/>
     <col min="4" max="4" bestFit="1" width="21.7265625" customWidth="1" style="2"/>
     <col min="5" max="5" bestFit="1" width="11.81640625" customWidth="1" style="7"/>
-    <col min="6" max="7" width="8.7265625" customWidth="1" style="7"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1" style="7"/>
+    <col min="7" max="7" bestFit="1" width="9.81640625" customWidth="1" style="7"/>
     <col min="8" max="8" bestFit="1" width="10.08984375" customWidth="1" style="7"/>
     <col min="9" max="9" width="12.453125" customWidth="1" style="7"/>
     <col min="10" max="10" width="21.90625" customWidth="1" style="7"/>
@@ -1343,8 +2235,8 @@
     <col min="46" max="46" width="8.7265625" customWidth="1" style="7"/>
     <col min="47" max="47" width="10.36328125" customWidth="1" style="7"/>
     <col min="48" max="48" width="11.54296875" customWidth="1" style="7"/>
-    <col min="49" max="67" width="8.7265625" customWidth="1" style="7"/>
-    <col min="68" max="16384" width="8.7265625" customWidth="1" style="7"/>
+    <col min="49" max="79" width="8.7265625" customWidth="1" style="7"/>
+    <col min="80" max="16384" width="8.7265625" customWidth="1" style="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1751,61 +2643,3572 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" s="2" t="s">
+    <row r="6" ht="13.5" customHeight="1" s="4" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="7">
+      <c r="B6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="30">
+        <v>101075429</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3400112834</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="32">
+        <v>46121149</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>2.9716894977168953</v>
+      </c>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="AN6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="38">
+        <v>36</v>
+      </c>
+      <c r="BI6" s="38"/>
+      <c r="BJ6" s="39"/>
+      <c r="BK6" s="40"/>
+      <c r="BL6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="42">
+        <v>1440</v>
+      </c>
+      <c r="BP6" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BQ6" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BR6" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BS6" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BT6" s="42">
+        <v>5760</v>
+      </c>
+      <c r="BU6" s="42">
+        <v>6624</v>
+      </c>
+      <c r="BV6" s="41">
+        <v>5472</v>
+      </c>
+      <c r="BW6" s="41">
+        <v>6048</v>
+      </c>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="43"/>
+      <c r="CA6" s="43"/>
+      <c r="CB6" s="43"/>
+      <c r="CC6" s="43"/>
+      <c r="CD6" s="43"/>
+      <c r="CE6" s="43"/>
+      <c r="CF6" s="43"/>
+      <c r="CG6" s="43"/>
+      <c r="CH6" s="43"/>
+      <c r="CI6" s="43"/>
+      <c r="CJ6" s="43"/>
+      <c r="CK6" s="43"/>
+      <c r="CL6" s="43"/>
+      <c r="CM6" s="43"/>
+      <c r="CN6" s="43"/>
+      <c r="CO6" s="43"/>
+      <c r="CP6" s="43"/>
+      <c r="CQ6" s="43"/>
+      <c r="CR6" s="43"/>
+      <c r="CS6" s="43"/>
+      <c r="CT6" s="43"/>
+      <c r="CU6" s="43"/>
+      <c r="CV6" s="43"/>
+      <c r="CW6" s="43"/>
+      <c r="CX6" s="43"/>
+      <c r="CY6" s="43"/>
+      <c r="CZ6" s="43"/>
+      <c r="DA6" s="43"/>
+      <c r="DB6" s="43"/>
+      <c r="DC6" s="43"/>
+      <c r="DD6" s="43"/>
+      <c r="DE6" s="43"/>
+      <c r="DF6" s="43"/>
+      <c r="DG6" s="43"/>
+      <c r="DH6" s="44"/>
+      <c r="DI6" s="44"/>
+      <c r="DJ6" s="30"/>
+      <c r="DK6" s="45"/>
+      <c r="DL6" s="45"/>
+      <c r="DM6" s="45"/>
+      <c r="DN6" s="45"/>
+      <c r="DO6" s="45"/>
+      <c r="DP6" s="45"/>
+      <c r="DQ6" s="45"/>
+      <c r="DR6" s="45"/>
+    </row>
+    <row r="7" ht="13" customHeight="1" s="4" customFormat="1">
+      <c r="A7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="30">
+        <v>101075429</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="32">
+        <v>3400112834</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="30">
+        <v>50565611</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="41">
+        <v>165</v>
+      </c>
+      <c r="BI7" s="41"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="42"/>
+      <c r="BL7" s="41">
+        <v>27720</v>
+      </c>
+      <c r="BM7" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BN7" s="41">
+        <v>27720</v>
+      </c>
+      <c r="BO7" s="42">
+        <v>26400</v>
+      </c>
+      <c r="BP7" s="42">
+        <v>29040</v>
+      </c>
+      <c r="BQ7" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BR7" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BS7" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BT7" s="42">
+        <v>26400</v>
+      </c>
+      <c r="BU7" s="42">
+        <v>30360</v>
+      </c>
+      <c r="BV7" s="41">
+        <v>25080</v>
+      </c>
+      <c r="BW7" s="41">
+        <v>27720</v>
+      </c>
+      <c r="BX7" s="43"/>
+      <c r="BY7" s="43"/>
+      <c r="BZ7" s="43"/>
+      <c r="CA7" s="43"/>
+      <c r="CB7" s="43"/>
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="43"/>
+      <c r="CE7" s="43"/>
+      <c r="CF7" s="43"/>
+      <c r="CG7" s="43"/>
+      <c r="CH7" s="43"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="43"/>
+      <c r="CK7" s="43"/>
+      <c r="CL7" s="43"/>
+      <c r="CM7" s="43"/>
+      <c r="CN7" s="43"/>
+      <c r="CO7" s="43"/>
+      <c r="CP7" s="43"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="43"/>
+      <c r="CS7" s="43"/>
+      <c r="CT7" s="43"/>
+      <c r="CU7" s="43"/>
+      <c r="CV7" s="43"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
+      <c r="CZ7" s="43"/>
+      <c r="DA7" s="43"/>
+      <c r="DB7" s="43"/>
+      <c r="DC7" s="43"/>
+      <c r="DD7" s="43"/>
+      <c r="DE7" s="43"/>
+      <c r="DF7" s="43"/>
+      <c r="DG7" s="43"/>
+      <c r="DH7" s="44"/>
+      <c r="DI7" s="44"/>
+      <c r="DJ7" s="30"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="45"/>
+      <c r="DP7" s="45"/>
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="4" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="30">
+        <v>101084469</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="32">
+        <v>3400113539</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="32">
+        <v>46038559</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="V8" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="41">
+        <v>36</v>
+      </c>
+      <c r="BI8" s="41"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BP8" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BQ8" s="42">
+        <v>5472</v>
+      </c>
+      <c r="BR8" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BS8" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BT8" s="42">
+        <v>5760</v>
+      </c>
+      <c r="BU8" s="42">
+        <v>6624</v>
+      </c>
+      <c r="BV8" s="41">
+        <v>5472</v>
+      </c>
+      <c r="BW8" s="41">
+        <v>6048</v>
+      </c>
+      <c r="BX8" s="43"/>
+      <c r="BY8" s="43"/>
+      <c r="BZ8" s="43"/>
+      <c r="CA8" s="43"/>
+      <c r="CB8" s="43"/>
+      <c r="CC8" s="43"/>
+      <c r="CD8" s="43"/>
+      <c r="CE8" s="43"/>
+      <c r="CF8" s="43"/>
+      <c r="CG8" s="43"/>
+      <c r="CH8" s="43"/>
+      <c r="CI8" s="43"/>
+      <c r="CJ8" s="43"/>
+      <c r="CK8" s="43"/>
+      <c r="CL8" s="43"/>
+      <c r="CM8" s="43"/>
+      <c r="CN8" s="43"/>
+      <c r="CO8" s="43"/>
+      <c r="CP8" s="43"/>
+      <c r="CQ8" s="43"/>
+      <c r="CR8" s="43"/>
+      <c r="CS8" s="43"/>
+      <c r="CT8" s="43"/>
+      <c r="CU8" s="43"/>
+      <c r="CV8" s="43"/>
+      <c r="CW8" s="43"/>
+      <c r="CX8" s="43"/>
+      <c r="CY8" s="43"/>
+      <c r="CZ8" s="43"/>
+      <c r="DA8" s="43"/>
+      <c r="DB8" s="43"/>
+      <c r="DC8" s="43"/>
+      <c r="DD8" s="43"/>
+      <c r="DE8" s="43"/>
+      <c r="DF8" s="43"/>
+      <c r="DG8" s="43"/>
+      <c r="DH8" s="44"/>
+      <c r="DI8" s="44"/>
+      <c r="DJ8" s="30"/>
+      <c r="DK8" s="45"/>
+      <c r="DL8" s="45"/>
+      <c r="DM8" s="45"/>
+      <c r="DN8" s="45"/>
+      <c r="DO8" s="45"/>
+      <c r="DP8" s="45"/>
+      <c r="DQ8" s="45"/>
+      <c r="DR8" s="45"/>
+    </row>
+    <row r="9" ht="13" customHeight="1" s="4" customFormat="1">
+      <c r="A9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="30">
+        <v>101084469</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="32">
+        <v>3400113539</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="32">
+        <v>50440278</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="41">
+        <v>165</v>
+      </c>
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="32"/>
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BP9" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BQ9" s="42">
+        <v>22440</v>
+      </c>
+      <c r="BR9" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BS9" s="42">
+        <v>27720</v>
+      </c>
+      <c r="BT9" s="42">
+        <v>26400</v>
+      </c>
+      <c r="BU9" s="42">
+        <v>30360</v>
+      </c>
+      <c r="BV9" s="41">
+        <v>25080</v>
+      </c>
+      <c r="BW9" s="41">
+        <v>27720</v>
+      </c>
+      <c r="BX9" s="43"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43"/>
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
+      <c r="CC9" s="43"/>
+      <c r="CD9" s="43"/>
+      <c r="CE9" s="43"/>
+      <c r="CF9" s="43"/>
+      <c r="CG9" s="43"/>
+      <c r="CH9" s="43"/>
+      <c r="CI9" s="43"/>
+      <c r="CJ9" s="43"/>
+      <c r="CK9" s="43"/>
+      <c r="CL9" s="43"/>
+      <c r="CM9" s="43"/>
+      <c r="CN9" s="43"/>
+      <c r="CO9" s="43"/>
+      <c r="CP9" s="43"/>
+      <c r="CQ9" s="43"/>
+      <c r="CR9" s="43"/>
+      <c r="CS9" s="43"/>
+      <c r="CT9" s="43"/>
+      <c r="CU9" s="43"/>
+      <c r="CV9" s="43"/>
+      <c r="CW9" s="43"/>
+      <c r="CX9" s="43"/>
+      <c r="CY9" s="43"/>
+      <c r="CZ9" s="43"/>
+      <c r="DA9" s="43"/>
+      <c r="DB9" s="43"/>
+      <c r="DC9" s="43"/>
+      <c r="DD9" s="43"/>
+      <c r="DE9" s="43"/>
+      <c r="DF9" s="43"/>
+      <c r="DG9" s="43"/>
+      <c r="DH9" s="44"/>
+      <c r="DI9" s="44"/>
+      <c r="DJ9" s="30"/>
+      <c r="DK9" s="45"/>
+      <c r="DL9" s="45"/>
+      <c r="DM9" s="45"/>
+      <c r="DN9" s="45"/>
+      <c r="DO9" s="45"/>
+      <c r="DP9" s="45"/>
+      <c r="DQ9" s="45"/>
+      <c r="DR9" s="45"/>
+    </row>
+    <row r="10" ht="13" customHeight="1" s="4" customFormat="1">
+      <c r="A10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="30">
+        <v>101084469</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="32">
+        <v>3400113539</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="32">
+        <v>1023291</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="41">
+        <v>135</v>
+      </c>
+      <c r="BI10" s="41"/>
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="42"/>
+      <c r="BL10" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BP10" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BQ10" s="42">
+        <v>20520</v>
+      </c>
+      <c r="BR10" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BS10" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BT10" s="42">
+        <v>21600</v>
+      </c>
+      <c r="BU10" s="42">
+        <v>24840</v>
+      </c>
+      <c r="BV10" s="41">
+        <v>20520</v>
+      </c>
+      <c r="BW10" s="41">
+        <v>22680</v>
+      </c>
+      <c r="BX10" s="43"/>
+      <c r="BY10" s="43"/>
+      <c r="BZ10" s="43"/>
+      <c r="CA10" s="43"/>
+      <c r="CB10" s="43"/>
+      <c r="CC10" s="43"/>
+      <c r="CD10" s="43"/>
+      <c r="CE10" s="43"/>
+      <c r="CF10" s="43"/>
+      <c r="CG10" s="43"/>
+      <c r="CH10" s="43"/>
+      <c r="CI10" s="43"/>
+      <c r="CJ10" s="43"/>
+      <c r="CK10" s="43"/>
+      <c r="CL10" s="43"/>
+      <c r="CM10" s="43"/>
+      <c r="CN10" s="43"/>
+      <c r="CO10" s="43"/>
+      <c r="CP10" s="43"/>
+      <c r="CQ10" s="43"/>
+      <c r="CR10" s="43"/>
+      <c r="CS10" s="43"/>
+      <c r="CT10" s="43"/>
+      <c r="CU10" s="43"/>
+      <c r="CV10" s="43"/>
+      <c r="CW10" s="43"/>
+      <c r="CX10" s="43"/>
+      <c r="CY10" s="43"/>
+      <c r="CZ10" s="43"/>
+      <c r="DA10" s="43"/>
+      <c r="DB10" s="43"/>
+      <c r="DC10" s="43"/>
+      <c r="DD10" s="43"/>
+      <c r="DE10" s="43"/>
+      <c r="DF10" s="43"/>
+      <c r="DG10" s="43"/>
+      <c r="DH10" s="44"/>
+      <c r="DI10" s="44"/>
+      <c r="DJ10" s="30"/>
+      <c r="DK10" s="45"/>
+      <c r="DL10" s="45"/>
+      <c r="DM10" s="45"/>
+      <c r="DN10" s="45"/>
+      <c r="DO10" s="45"/>
+      <c r="DP10" s="45"/>
+      <c r="DQ10" s="45"/>
+      <c r="DR10" s="45"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="4" customFormat="1">
+      <c r="A11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="30">
+        <v>101096672</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="32">
+        <v>3400114234</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="32">
+        <v>46220341</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="41">
+        <v>36</v>
+      </c>
+      <c r="BI11" s="41"/>
+      <c r="BJ11" s="32"/>
+      <c r="BK11" s="42"/>
+      <c r="BL11" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BP11" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BQ11" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BR11" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BS11" s="42">
+        <v>6048</v>
+      </c>
+      <c r="BT11" s="42">
+        <v>5760</v>
+      </c>
+      <c r="BU11" s="42">
+        <v>6624</v>
+      </c>
+      <c r="BV11" s="41">
+        <v>5472</v>
+      </c>
+      <c r="BW11" s="41">
+        <v>6048</v>
+      </c>
+      <c r="BX11" s="43"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="43"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="43"/>
+      <c r="CD11" s="43"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="43"/>
+      <c r="CJ11" s="43"/>
+      <c r="CK11" s="43"/>
+      <c r="CL11" s="43"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="43"/>
+      <c r="CR11" s="43"/>
+      <c r="CS11" s="43"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="43"/>
+      <c r="CX11" s="43"/>
+      <c r="CY11" s="43"/>
+      <c r="CZ11" s="43"/>
+      <c r="DA11" s="43"/>
+      <c r="DB11" s="43"/>
+      <c r="DC11" s="43"/>
+      <c r="DD11" s="43"/>
+      <c r="DE11" s="43"/>
+      <c r="DF11" s="43"/>
+      <c r="DG11" s="43"/>
+      <c r="DH11" s="44"/>
+      <c r="DI11" s="44"/>
+      <c r="DJ11" s="30"/>
+      <c r="DK11" s="45"/>
+      <c r="DL11" s="45"/>
+      <c r="DM11" s="45"/>
+      <c r="DN11" s="45"/>
+      <c r="DO11" s="45"/>
+      <c r="DP11" s="45"/>
+      <c r="DQ11" s="45"/>
+      <c r="DR11" s="45"/>
+    </row>
+    <row r="12" ht="13" s="4" customFormat="1">
+      <c r="A12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="30">
+        <v>101096672</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="32">
+        <v>3400114234</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="32">
+        <v>1023002</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="41">
+        <v>135</v>
+      </c>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="41">
+        <v>22680</v>
+      </c>
+      <c r="BO12" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BP12" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BQ12" s="42">
+        <v>22680</v>
+      </c>
+      <c r="BR12" s="42">
+        <v>10800</v>
+      </c>
+      <c r="BS12" s="42">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="42">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="42">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="43"/>
+      <c r="BY12" s="43"/>
+      <c r="BZ12" s="43"/>
+      <c r="CA12" s="43"/>
+      <c r="CB12" s="43"/>
+      <c r="CC12" s="43"/>
+      <c r="CD12" s="43"/>
+      <c r="CE12" s="43"/>
+      <c r="CF12" s="43"/>
+      <c r="CG12" s="43"/>
+      <c r="CH12" s="43"/>
+      <c r="CI12" s="43"/>
+      <c r="CJ12" s="43"/>
+      <c r="CK12" s="43"/>
+      <c r="CL12" s="43"/>
+      <c r="CM12" s="43"/>
+      <c r="CN12" s="43"/>
+      <c r="CO12" s="43"/>
+      <c r="CP12" s="43"/>
+      <c r="CQ12" s="43"/>
+      <c r="CR12" s="43"/>
+      <c r="CS12" s="43"/>
+      <c r="CT12" s="43"/>
+      <c r="CU12" s="43"/>
+      <c r="CV12" s="43"/>
+      <c r="CW12" s="43"/>
+      <c r="CX12" s="43"/>
+      <c r="CY12" s="43"/>
+      <c r="CZ12" s="43"/>
+      <c r="DA12" s="43"/>
+      <c r="DB12" s="43"/>
+      <c r="DC12" s="43"/>
+      <c r="DD12" s="43"/>
+      <c r="DE12" s="43"/>
+      <c r="DF12" s="43"/>
+      <c r="DG12" s="43"/>
+      <c r="DH12" s="44"/>
+      <c r="DI12" s="44"/>
+      <c r="DJ12" s="30"/>
+      <c r="DK12" s="45"/>
+      <c r="DL12" s="45"/>
+      <c r="DM12" s="45"/>
+      <c r="DN12" s="45"/>
+      <c r="DO12" s="45"/>
+      <c r="DP12" s="45"/>
+      <c r="DQ12" s="45"/>
+      <c r="DR12" s="45"/>
+    </row>
+    <row r="13" ht="13" s="4" customFormat="1">
+      <c r="A13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32">
+        <v>50491911</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="X13" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="37"/>
+      <c r="BH13" s="41">
+        <v>155</v>
+      </c>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="41">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="42">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BP13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BQ13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BR13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BS13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BT13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BU13" s="42">
+        <v>15120</v>
+      </c>
+      <c r="BV13" s="41">
+        <v>15120</v>
+      </c>
+      <c r="BW13" s="41">
+        <v>15120</v>
+      </c>
+      <c r="BX13" s="43"/>
+      <c r="BY13" s="43"/>
+      <c r="BZ13" s="43"/>
+      <c r="CA13" s="43"/>
+      <c r="CB13" s="43"/>
+      <c r="CC13" s="43"/>
+      <c r="CD13" s="43"/>
+      <c r="CE13" s="43"/>
+      <c r="CF13" s="43"/>
+      <c r="CG13" s="43"/>
+      <c r="CH13" s="43"/>
+      <c r="CI13" s="43"/>
+      <c r="CJ13" s="43"/>
+      <c r="CK13" s="43"/>
+      <c r="CL13" s="43"/>
+      <c r="CM13" s="43"/>
+      <c r="CN13" s="43"/>
+      <c r="CO13" s="43"/>
+      <c r="CP13" s="43"/>
+      <c r="CQ13" s="43"/>
+      <c r="CR13" s="43"/>
+      <c r="CS13" s="43"/>
+      <c r="CT13" s="43"/>
+      <c r="CU13" s="43"/>
+      <c r="CV13" s="43"/>
+      <c r="CW13" s="43"/>
+      <c r="CX13" s="43"/>
+      <c r="CY13" s="43"/>
+      <c r="CZ13" s="43"/>
+      <c r="DA13" s="43"/>
+      <c r="DB13" s="43"/>
+      <c r="DC13" s="43"/>
+      <c r="DD13" s="43"/>
+      <c r="DE13" s="43"/>
+      <c r="DF13" s="43"/>
+      <c r="DG13" s="43"/>
+      <c r="DH13" s="44"/>
+      <c r="DI13" s="44"/>
+      <c r="DJ13" s="30"/>
+      <c r="DK13" s="45"/>
+      <c r="DL13" s="45"/>
+      <c r="DM13" s="45"/>
+      <c r="DN13" s="45"/>
+      <c r="DO13" s="45"/>
+      <c r="DP13" s="45"/>
+      <c r="DQ13" s="45"/>
+      <c r="DR13" s="45"/>
+    </row>
+    <row r="14" s="4" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="32">
+        <v>101120123</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="50">
+        <v>317326</v>
+      </c>
+      <c r="O14" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V14" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
+      <c r="BH14" s="41">
+        <f>VLOOKUP((CONCATENATE(V14,"-",X14)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>221.60714285714286</v>
+      </c>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="40">
+        <f>VLOOKUP((CONCATENATE(V14,"-",X14)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>37230</v>
+      </c>
+      <c r="BL14" s="41">
+        <f ref="BL14:BL20" t="shared" si="0">IFERROR(BK14*AJ14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BM14" s="41">
+        <f ref="BM14:BM20" t="shared" si="1">IFERROR(BK14*AK14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BN14" s="41">
+        <f>IFERROR(BK14*AL14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BO14" s="41">
+        <f>IFERROR(BK14*AM14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BP14" s="41">
+        <f>IFERROR(BK14*AN14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BQ14" s="41">
+        <f>IFERROR(BK14*AO14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BR14" s="41">
+        <f>IFERROR(BK14*AP14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BS14" s="41">
+        <f>IFERROR(BK14*AQ14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BT14" s="41">
+        <f>IFERROR(BK14*AR14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BU14" s="41">
+        <f>IFERROR(BK14*AS14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BV14" s="41">
+        <f>IFERROR(BK14*AT14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BW14" s="41">
+        <f>IFERROR(BK14*AU14,0)</f>
+        <v>37230</v>
+      </c>
+      <c r="BX14" s="43"/>
+      <c r="BY14" s="43"/>
+      <c r="BZ14" s="43"/>
+      <c r="CA14" s="43"/>
+      <c r="CB14" s="43"/>
+      <c r="CC14" s="43"/>
+      <c r="CD14" s="43"/>
+      <c r="CE14" s="43"/>
+      <c r="CF14" s="43"/>
+      <c r="CG14" s="43"/>
+      <c r="CH14" s="43"/>
+      <c r="CI14" s="43"/>
+      <c r="CJ14" s="43"/>
+      <c r="CK14" s="43"/>
+      <c r="CL14" s="43"/>
+      <c r="CM14" s="43"/>
+      <c r="CN14" s="43"/>
+      <c r="CO14" s="43"/>
+      <c r="CP14" s="43"/>
+      <c r="CQ14" s="43"/>
+      <c r="CR14" s="43"/>
+      <c r="CS14" s="43"/>
+      <c r="CT14" s="43"/>
+      <c r="CU14" s="43"/>
+      <c r="CV14" s="43"/>
+      <c r="CW14" s="43"/>
+      <c r="CX14" s="43"/>
+      <c r="CY14" s="43"/>
+      <c r="CZ14" s="43"/>
+      <c r="DA14" s="43"/>
+      <c r="DB14" s="43"/>
+      <c r="DC14" s="43"/>
+      <c r="DD14" s="43"/>
+      <c r="DE14" s="43"/>
+      <c r="DF14" s="43"/>
+      <c r="DG14" s="43"/>
+      <c r="DH14" s="44"/>
+      <c r="DI14" s="44"/>
+      <c r="DJ14" s="30"/>
+      <c r="DK14" s="45"/>
+      <c r="DL14" s="45"/>
+      <c r="DM14" s="45"/>
+      <c r="DN14" s="45"/>
+      <c r="DO14" s="45"/>
+      <c r="DP14" s="45"/>
+      <c r="DQ14" s="45"/>
+      <c r="DR14" s="45"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="4" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="47">
+        <v>101120070</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="32">
+        <v>1022608</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W15" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="34">
+        <v>14</v>
+      </c>
+      <c r="AA15" s="34">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC15" s="35">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="41">
+        <f>VLOOKUP((CONCATENATE(V15,"-",X15)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>137.57857142857142</v>
+      </c>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="42">
+        <f>VLOOKUP((CONCATENATE(V15,"-",X15)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BL15" s="41">
+        <f t="shared" si="0"/>
+        <v>23113.2</v>
+      </c>
+      <c r="BM15" s="41">
+        <f t="shared" si="1"/>
+        <v>23113.2</v>
+      </c>
+      <c r="BN15" s="41">
+        <f>IFERROR(BK15*AL15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BO15" s="41">
+        <f>IFERROR(BK15*AM15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BP15" s="41">
+        <f>IFERROR(BK15*AN15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BQ15" s="41">
+        <f>IFERROR(BK15*AO15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BR15" s="41">
+        <f>IFERROR(BK15*AP15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BS15" s="41">
+        <f>IFERROR(BK15*AQ15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BT15" s="41">
+        <f>IFERROR(BK15*AR15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BU15" s="41">
+        <f>IFERROR(BK15*AS15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BV15" s="41">
+        <f>IFERROR(BK15*AT15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BW15" s="41">
+        <f>IFERROR(BK15*AU15,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BX15" s="43"/>
+      <c r="BY15" s="43"/>
+      <c r="BZ15" s="43"/>
+      <c r="CA15" s="43"/>
+      <c r="CB15" s="43"/>
+      <c r="CC15" s="43"/>
+      <c r="CD15" s="43"/>
+      <c r="CE15" s="43"/>
+      <c r="CF15" s="43"/>
+      <c r="CG15" s="43"/>
+      <c r="CH15" s="43"/>
+      <c r="CI15" s="43"/>
+      <c r="CJ15" s="43"/>
+      <c r="CK15" s="43"/>
+      <c r="CL15" s="43"/>
+      <c r="CM15" s="43"/>
+      <c r="CN15" s="43"/>
+      <c r="CO15" s="43"/>
+      <c r="CP15" s="43"/>
+      <c r="CQ15" s="43"/>
+      <c r="CR15" s="43"/>
+      <c r="CS15" s="43"/>
+      <c r="CT15" s="43"/>
+      <c r="CU15" s="43"/>
+      <c r="CV15" s="43"/>
+      <c r="CW15" s="43"/>
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="43"/>
+      <c r="DB15" s="43"/>
+      <c r="DC15" s="43"/>
+      <c r="DD15" s="43"/>
+      <c r="DE15" s="43"/>
+      <c r="DF15" s="43"/>
+      <c r="DG15" s="43"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="30"/>
+      <c r="DK15" s="45"/>
+      <c r="DL15" s="45"/>
+      <c r="DM15" s="45"/>
+      <c r="DN15" s="45"/>
+      <c r="DO15" s="45"/>
+      <c r="DP15" s="45"/>
+      <c r="DQ15" s="45"/>
+      <c r="DR15" s="45"/>
+    </row>
+    <row r="16" ht="14.5" customHeight="1" s="4" customFormat="1">
+      <c r="A16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="47">
+        <v>101120070</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="49">
+        <v>1023255</v>
+      </c>
+      <c r="O16" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U16" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="34">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="34">
+        <v>18</v>
+      </c>
+      <c r="AB16" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="41">
+        <f>VLOOKUP((CONCATENATE(V16,"-",X16)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>137.57857142857142</v>
+      </c>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="42">
+        <f>VLOOKUP((CONCATENATE(V16,"-",X16)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BL16" s="41">
+        <f t="shared" si="0"/>
+        <v>23113.2</v>
+      </c>
+      <c r="BM16" s="41">
+        <f t="shared" si="1"/>
+        <v>23113.2</v>
+      </c>
+      <c r="BN16" s="41">
+        <f>IFERROR(BK16*AL16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BO16" s="41">
+        <f>IFERROR(BK16*AM16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BP16" s="41">
+        <f>IFERROR(BK16*AN16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BQ16" s="41">
+        <f>IFERROR(BK16*AO16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BR16" s="41">
+        <f>IFERROR(BK16*AP16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BS16" s="41">
+        <f>IFERROR(BK16*AQ16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BT16" s="41">
+        <f>IFERROR(BK16*AR16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BU16" s="41">
+        <f>IFERROR(BK16*AS16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BV16" s="41">
+        <f>IFERROR(BK16*AT16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BW16" s="41">
+        <f>IFERROR(BK16*AU16,0)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BX16" s="43"/>
+      <c r="BY16" s="43"/>
+      <c r="BZ16" s="43"/>
+      <c r="CA16" s="43"/>
+      <c r="CB16" s="43"/>
+      <c r="CC16" s="43"/>
+      <c r="CD16" s="43"/>
+      <c r="CE16" s="43"/>
+      <c r="CF16" s="43"/>
+      <c r="CG16" s="43"/>
+      <c r="CH16" s="43"/>
+      <c r="CI16" s="43"/>
+      <c r="CJ16" s="53"/>
+      <c r="CK16" s="53"/>
+      <c r="CL16" s="53"/>
+      <c r="CM16" s="53"/>
+      <c r="CN16" s="53"/>
+      <c r="CO16" s="53"/>
+      <c r="CP16" s="53"/>
+      <c r="CQ16" s="53"/>
+      <c r="CR16" s="53"/>
+      <c r="CS16" s="53"/>
+      <c r="CT16" s="53"/>
+      <c r="CU16" s="53"/>
+      <c r="CV16" s="43"/>
+      <c r="CW16" s="43"/>
+      <c r="CX16" s="43"/>
+      <c r="CY16" s="43"/>
+      <c r="CZ16" s="43"/>
+      <c r="DA16" s="43"/>
+      <c r="DB16" s="43"/>
+      <c r="DC16" s="43"/>
+      <c r="DD16" s="43"/>
+      <c r="DE16" s="43"/>
+      <c r="DF16" s="43"/>
+      <c r="DG16" s="43"/>
+      <c r="DH16" s="44"/>
+      <c r="DI16" s="54"/>
+      <c r="DJ16" s="30"/>
+      <c r="DK16" s="45"/>
+      <c r="DL16" s="45"/>
+      <c r="DM16" s="45"/>
+      <c r="DN16" s="45"/>
+      <c r="DO16" s="45"/>
+      <c r="DP16" s="45"/>
+      <c r="DQ16" s="45"/>
+      <c r="DR16" s="45"/>
+    </row>
+    <row r="17" ht="13" s="4" customFormat="1">
+      <c r="A17" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="46">
+        <v>101120070</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="30">
+        <v>1022860</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="X17" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC17" s="37">
         <v>2</v>
       </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="36">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="41">
+        <f>VLOOKUP((CONCATENATE(V17,"-",X17)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>137.57857142857142</v>
+      </c>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="31"/>
+      <c r="BK17" s="42">
+        <f>VLOOKUP((CONCATENATE(V17,"-",X17)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BL17" s="41">
+        <f t="shared" si="0"/>
+        <v>23113.2</v>
+      </c>
+      <c r="BM17" s="41">
+        <f t="shared" si="1"/>
+        <v>23113.2</v>
+      </c>
+      <c r="BN17" s="41">
+        <f>BK17*AL17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BO17" s="41">
+        <f>BK17*AM17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BP17" s="41">
+        <f>BK17*AN17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BQ17" s="41">
+        <f>BK17*AO17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BR17" s="41">
+        <f>BK17*AP17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BS17" s="41">
+        <f>BK17*AQ17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BT17" s="41">
+        <f>BK17*AR17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BU17" s="41">
+        <f>BK17*AS17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BV17" s="41">
+        <f>BK17*AT17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BW17" s="41">
+        <f>BK17*AU17</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BX17" s="56"/>
+      <c r="BY17" s="56"/>
+      <c r="BZ17" s="56"/>
+      <c r="CA17" s="56"/>
+      <c r="CB17" s="56"/>
+      <c r="CC17" s="56"/>
+      <c r="CD17" s="56"/>
+      <c r="CE17" s="56"/>
+      <c r="CF17" s="56"/>
+      <c r="CG17" s="56"/>
+      <c r="CH17" s="56"/>
+      <c r="CI17" s="56"/>
+      <c r="CJ17" s="56"/>
+      <c r="CK17" s="56"/>
+      <c r="CL17" s="56"/>
+      <c r="CM17" s="56"/>
+      <c r="CN17" s="56"/>
+      <c r="CO17" s="56"/>
+      <c r="CP17" s="56"/>
+      <c r="CQ17" s="56"/>
+      <c r="CR17" s="56"/>
+      <c r="CS17" s="56"/>
+      <c r="CT17" s="56"/>
+      <c r="CU17" s="56"/>
+      <c r="CV17" s="56"/>
+      <c r="CW17" s="56"/>
+      <c r="CX17" s="56"/>
+      <c r="CY17" s="56"/>
+      <c r="CZ17" s="56"/>
+      <c r="DA17" s="56"/>
+      <c r="DB17" s="56"/>
+      <c r="DC17" s="56"/>
+      <c r="DD17" s="56"/>
+      <c r="DE17" s="56"/>
+      <c r="DF17" s="56"/>
+      <c r="DG17" s="56"/>
+      <c r="DH17" s="44"/>
+      <c r="DI17" s="44"/>
+      <c r="DK17" s="36"/>
+      <c r="DL17" s="36"/>
+      <c r="DM17" s="36"/>
+      <c r="DN17" s="36"/>
+      <c r="DO17" s="36"/>
+      <c r="DP17" s="45"/>
+      <c r="DQ17" s="45"/>
+      <c r="DR17" s="45"/>
+    </row>
+    <row r="18" ht="14.5" customHeight="1" s="4" customFormat="1">
+      <c r="A18" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="47">
+        <v>101120070</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="49">
+        <v>1022064</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z18" s="34">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="34">
+        <v>24</v>
+      </c>
+      <c r="AB18" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AL18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AM18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AN18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AO18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AP18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AR18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AS18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AT18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AU18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="41">
+        <f>VLOOKUP((CONCATENATE(V18,"-",X18)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>137.57857142857142</v>
+      </c>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="42">
+        <f>VLOOKUP((CONCATENATE(V18,"-",X18)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>23113.2</v>
+      </c>
+      <c r="BL18" s="41">
+        <f t="shared" si="0"/>
+        <v>11556.6</v>
+      </c>
+      <c r="BM18" s="41">
+        <f t="shared" si="1"/>
+        <v>11556.6</v>
+      </c>
+      <c r="BN18" s="41">
+        <f>BK18*AL18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BO18" s="41">
+        <f>BK18*AM18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BP18" s="41">
+        <f>BK18*AN18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BQ18" s="41">
+        <f>BK18*AO18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BR18" s="41">
+        <f>BK18*AP18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BS18" s="41">
+        <f>BK18*AQ18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BT18" s="41">
+        <f>BK18*AR18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BU18" s="41">
+        <f>BK18*AS18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BV18" s="41">
+        <f>BK18*AT18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BW18" s="41">
+        <f>BK18*AU18</f>
+        <v>11556.6</v>
+      </c>
+      <c r="BX18" s="43"/>
+      <c r="BY18" s="43"/>
+      <c r="BZ18" s="43"/>
+      <c r="CA18" s="43"/>
+      <c r="CB18" s="43"/>
+      <c r="CC18" s="43"/>
+      <c r="CD18" s="43"/>
+      <c r="CE18" s="43"/>
+      <c r="CF18" s="43"/>
+      <c r="CG18" s="43"/>
+      <c r="CH18" s="43"/>
+      <c r="CI18" s="43"/>
+      <c r="CJ18" s="53"/>
+      <c r="CK18" s="53"/>
+      <c r="CL18" s="53"/>
+      <c r="CM18" s="53"/>
+      <c r="CN18" s="53"/>
+      <c r="CO18" s="53"/>
+      <c r="CP18" s="53"/>
+      <c r="CQ18" s="53"/>
+      <c r="CR18" s="53"/>
+      <c r="CS18" s="53"/>
+      <c r="CT18" s="53"/>
+      <c r="CU18" s="53"/>
+      <c r="CV18" s="43"/>
+      <c r="CW18" s="43"/>
+      <c r="CX18" s="43"/>
+      <c r="CY18" s="43"/>
+      <c r="CZ18" s="43"/>
+      <c r="DA18" s="43"/>
+      <c r="DB18" s="43"/>
+      <c r="DC18" s="43"/>
+      <c r="DD18" s="43"/>
+      <c r="DE18" s="43"/>
+      <c r="DF18" s="43"/>
+      <c r="DG18" s="43"/>
+      <c r="DH18" s="44"/>
+      <c r="DI18" s="54"/>
+      <c r="DJ18" s="30"/>
+      <c r="DK18" s="45"/>
+      <c r="DL18" s="45"/>
+      <c r="DM18" s="45"/>
+      <c r="DN18" s="45"/>
+      <c r="DO18" s="45"/>
+      <c r="DP18" s="45"/>
+      <c r="DQ18" s="45"/>
+      <c r="DR18" s="45"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="4" customFormat="1">
+      <c r="A19" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="47">
+        <v>101120070</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="49">
+        <v>46036041</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="37"/>
+      <c r="BG19" s="37"/>
+      <c r="BH19" s="41">
+        <f>VLOOKUP((CONCATENATE(V19,"-",X19)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>29.9</v>
+      </c>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="42">
+        <f>VLOOKUP((CONCATENATE(V19,"-",X19)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BL19" s="41">
+        <f t="shared" si="0"/>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BM19" s="41">
+        <f t="shared" si="1"/>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BN19" s="41">
+        <f>IFERROR(BK19*AL19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BO19" s="41">
+        <f>IFERROR(BK19*AM19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BP19" s="41">
+        <f>IFERROR(BK19*AN19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BQ19" s="41">
+        <f>IFERROR(BK19*AO19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BR19" s="41">
+        <f>IFERROR(BK19*AP19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BS19" s="41">
+        <f>IFERROR(BK19*AQ19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BT19" s="41">
+        <f>IFERROR(BK19*AR19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BU19" s="41">
+        <f>IFERROR(BK19*AS19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BV19" s="41">
+        <f>IFERROR(BK19*AT19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BW19" s="41">
+        <f>IFERROR(BK19*AU19,0)</f>
+        <v>5651.099999999999</v>
+      </c>
+      <c r="BX19" s="43"/>
+      <c r="BY19" s="43"/>
+      <c r="BZ19" s="43"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="43"/>
+      <c r="CC19" s="43"/>
+      <c r="CD19" s="43"/>
+      <c r="CE19" s="43"/>
+      <c r="CF19" s="43"/>
+      <c r="CG19" s="43"/>
+      <c r="CH19" s="43"/>
+      <c r="CI19" s="43"/>
+      <c r="CJ19" s="43"/>
+      <c r="CK19" s="43"/>
+      <c r="CL19" s="43"/>
+      <c r="CM19" s="43"/>
+      <c r="CN19" s="43"/>
+      <c r="CO19" s="43"/>
+      <c r="CP19" s="43"/>
+      <c r="CQ19" s="43"/>
+      <c r="CR19" s="43"/>
+      <c r="CS19" s="43"/>
+      <c r="CT19" s="43"/>
+      <c r="CU19" s="43"/>
+      <c r="CV19" s="43"/>
+      <c r="CW19" s="43"/>
+      <c r="CX19" s="43"/>
+      <c r="CY19" s="43"/>
+      <c r="CZ19" s="43"/>
+      <c r="DA19" s="43"/>
+      <c r="DB19" s="43"/>
+      <c r="DC19" s="43"/>
+      <c r="DD19" s="43"/>
+      <c r="DE19" s="43"/>
+      <c r="DF19" s="43"/>
+      <c r="DG19" s="43"/>
+      <c r="DH19" s="44"/>
+      <c r="DI19" s="44"/>
+      <c r="DJ19" s="30"/>
+      <c r="DK19" s="45"/>
+      <c r="DL19" s="45"/>
+      <c r="DM19" s="45"/>
+      <c r="DN19" s="45"/>
+      <c r="DO19" s="45"/>
+      <c r="DP19" s="45"/>
+      <c r="DQ19" s="45"/>
+      <c r="DR19" s="45"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" s="4" customFormat="1">
+      <c r="A20" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="47">
+        <v>101120070</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="32">
+        <v>10022949</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="W20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X20" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y20" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z20" s="34">
+        <v>14.188127853881278</v>
+      </c>
+      <c r="AA20" s="34">
+        <v>18</v>
+      </c>
+      <c r="AB20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC20" s="35">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="35">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="35">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AK20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AL20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AM20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AN20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AO20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AP20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AR20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AS20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AT20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AU20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
+      <c r="BH20" s="41">
+        <f>VLOOKUP((CONCATENATE(V20,"-",X20)),'[1]Pricing Group'!$A$2:$F$30,6,FALSE)</f>
+        <v>31.624999999999996</v>
+      </c>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="42">
+        <f>VLOOKUP((CONCATENATE(V20,"-",X20)),'[1]Pricing Group'!$A$2:$F$30,5,FALSE)</f>
+        <v>5977.124999999999</v>
+      </c>
+      <c r="BL20" s="41">
+        <f t="shared" si="0"/>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BM20" s="41">
+        <f t="shared" si="1"/>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BN20" s="41">
+        <f>BK20*AL20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BO20" s="41">
+        <f>BK20*AM20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BP20" s="41">
+        <f>BK20*AN20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BQ20" s="41">
+        <f>BK20*AO20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BR20" s="41">
+        <f>BK20*AP20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BS20" s="41">
+        <f>BK20*AQ20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BT20" s="41">
+        <f>BK20*AR20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BU20" s="41">
+        <f>BK20*AS20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BV20" s="41">
+        <f>BK20*AT20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BW20" s="41">
+        <f>BK20*AU20</f>
+        <v>2988.5624999999995</v>
+      </c>
+      <c r="BX20" s="43"/>
+      <c r="BY20" s="43"/>
+      <c r="BZ20" s="43"/>
+      <c r="CA20" s="43"/>
+      <c r="CB20" s="43"/>
+      <c r="CC20" s="43"/>
+      <c r="CD20" s="43"/>
+      <c r="CE20" s="43"/>
+      <c r="CF20" s="43"/>
+      <c r="CG20" s="43"/>
+      <c r="CH20" s="43"/>
+      <c r="CI20" s="43"/>
+      <c r="CJ20" s="43"/>
+      <c r="CK20" s="43"/>
+      <c r="CL20" s="43"/>
+      <c r="CM20" s="43"/>
+      <c r="CN20" s="43"/>
+      <c r="CO20" s="43"/>
+      <c r="CP20" s="43"/>
+      <c r="CQ20" s="43"/>
+      <c r="CR20" s="43"/>
+      <c r="CS20" s="43"/>
+      <c r="CT20" s="43"/>
+      <c r="CU20" s="43"/>
+      <c r="CV20" s="43"/>
+      <c r="CW20" s="43"/>
+      <c r="CX20" s="43"/>
+      <c r="CY20" s="43"/>
+      <c r="CZ20" s="43"/>
+      <c r="DA20" s="43"/>
+      <c r="DB20" s="43"/>
+      <c r="DC20" s="43"/>
+      <c r="DD20" s="43"/>
+      <c r="DE20" s="43"/>
+      <c r="DF20" s="43"/>
+      <c r="DG20" s="43"/>
+      <c r="DH20" s="44"/>
+      <c r="DI20" s="44"/>
+      <c r="DJ20" s="30"/>
+      <c r="DK20" s="45"/>
+      <c r="DL20" s="45"/>
+      <c r="DM20" s="45"/>
+      <c r="DN20" s="45"/>
+      <c r="DO20" s="45"/>
+      <c r="DP20" s="45"/>
+      <c r="DQ20" s="45"/>
+      <c r="DR20" s="45"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="0" t="s">
+      <c r="C21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="E21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="G21" s="7">
+        <v>101025223</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="0">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="0" t="s">
+      <c r="L21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" s="0" t="s">
+      <c r="M21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="7">
+        <v>46121149</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="DV6" s="0" t="s">
+      <c r="P21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="DW6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="DX6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="DY6" s="0" t="s">
+      <c r="Q21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="DZ6" s="0" t="s">
+      <c r="R21" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>2.97</v>
+      </c>
+      <c r="AA21" s="0">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG21" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH21" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK21" s="0">
+        <v>2000</v>
+      </c>
+      <c r="DV21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="DW21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="DX21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="DY21" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="DZ21" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="EA21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="EB21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="EC21" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1815,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89AF9B-5D2B-4CB5-8709-D8948391AB85}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1836,10 +6239,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>7</v>
@@ -1848,7 +6251,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
@@ -1860,314 +6263,314 @@
         <v>18</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="C2" s="11">
         <v>101025223</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="11">
         <v>101082220</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="C4" s="11">
         <v>101075016</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="J4" s="12" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="C5" s="11">
         <v>101070251</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C6" s="11">
         <v>101025264</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C7" s="11">
         <v>101025227</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="11">
         <v>101049502</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="8" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="16"/>
       <c r="D11" s="12" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="8" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="8" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="3"/>
@@ -2177,10 +6580,10 @@
       <c r="B13" s="6"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2194,10 +6597,10 @@
       <c r="B14" s="6"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2211,10 +6614,10 @@
       <c r="B15" s="6"/>
       <c r="C15" s="18"/>
       <c r="D15" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2228,10 +6631,10 @@
       <c r="B16" s="6"/>
       <c r="C16" s="18"/>
       <c r="D16" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2245,10 +6648,10 @@
       <c r="B17" s="6"/>
       <c r="C17" s="18"/>
       <c r="D17" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2262,10 +6665,10 @@
       <c r="B18" s="6"/>
       <c r="C18" s="18"/>
       <c r="D18" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2279,10 +6682,10 @@
       <c r="B19" s="6"/>
       <c r="C19" s="19"/>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2296,10 +6699,10 @@
       <c r="B20" s="6"/>
       <c r="C20" s="18"/>
       <c r="D20" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2313,10 +6716,10 @@
       <c r="B21" s="6"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2330,10 +6733,10 @@
       <c r="B22" s="6"/>
       <c r="C22" s="18"/>
       <c r="D22" s="15" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2347,10 +6750,10 @@
       <c r="B23" s="6"/>
       <c r="C23" s="19"/>
       <c r="D23" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2364,10 +6767,10 @@
       <c r="B24" s="6"/>
       <c r="C24" s="18"/>
       <c r="D24" s="15" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2381,10 +6784,10 @@
       <c r="B25" s="6"/>
       <c r="C25" s="18"/>
       <c r="D25" s="15" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2398,10 +6801,10 @@
       <c r="B26" s="6"/>
       <c r="C26" s="18"/>
       <c r="D26" s="15" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2415,10 +6818,10 @@
       <c r="B27" s="6"/>
       <c r="C27" s="18"/>
       <c r="D27" s="15" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2432,10 +6835,10 @@
       <c r="B28" s="6"/>
       <c r="C28" s="18"/>
       <c r="D28" s="15" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2449,10 +6852,10 @@
       <c r="B29" s="6"/>
       <c r="C29" s="18"/>
       <c r="D29" s="15" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2466,10 +6869,10 @@
       <c r="B30" s="6"/>
       <c r="C30" s="18"/>
       <c r="D30" s="15" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2483,10 +6886,10 @@
       <c r="B31" s="6"/>
       <c r="C31" s="18"/>
       <c r="D31" s="15" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2500,10 +6903,10 @@
       <c r="B32" s="6"/>
       <c r="C32" s="18"/>
       <c r="D32" s="15" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2517,10 +6920,10 @@
       <c r="B33" s="6"/>
       <c r="C33" s="18"/>
       <c r="D33" s="15" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2534,10 +6937,10 @@
       <c r="B34" s="6"/>
       <c r="C34" s="18"/>
       <c r="D34" s="12" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2551,10 +6954,10 @@
       <c r="B35" s="6"/>
       <c r="C35" s="18"/>
       <c r="D35" s="12" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2568,10 +6971,10 @@
       <c r="B36" s="6"/>
       <c r="C36" s="18"/>
       <c r="D36" s="12" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2585,10 +6988,10 @@
       <c r="B37" s="6"/>
       <c r="C37" s="18"/>
       <c r="D37" s="12" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2602,10 +7005,10 @@
       <c r="B38" s="6"/>
       <c r="C38" s="18"/>
       <c r="D38" s="12" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2619,10 +7022,10 @@
       <c r="B39" s="6"/>
       <c r="C39" s="18"/>
       <c r="D39" s="12" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2636,10 +7039,10 @@
       <c r="B40" s="6"/>
       <c r="C40" s="18"/>
       <c r="D40" s="12" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2653,10 +7056,10 @@
       <c r="B41" s="6"/>
       <c r="C41" s="18"/>
       <c r="D41" s="12" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2670,10 +7073,10 @@
       <c r="B42" s="6"/>
       <c r="C42" s="16"/>
       <c r="D42" s="12" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2687,10 +7090,10 @@
       <c r="B43" s="6"/>
       <c r="C43" s="16"/>
       <c r="D43" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2704,10 +7107,10 @@
       <c r="B44" s="6"/>
       <c r="C44" s="16"/>
       <c r="D44" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2721,10 +7124,10 @@
       <c r="B45" s="6"/>
       <c r="C45" s="16"/>
       <c r="D45" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2738,10 +7141,10 @@
       <c r="B46" s="6"/>
       <c r="C46" s="16"/>
       <c r="D46" s="12" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2755,10 +7158,10 @@
       <c r="B47" s="6"/>
       <c r="C47" s="16"/>
       <c r="D47" s="12" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2772,10 +7175,10 @@
       <c r="B48" s="6"/>
       <c r="C48" s="16"/>
       <c r="D48" s="12" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2789,10 +7192,10 @@
       <c r="B49" s="6"/>
       <c r="C49" s="16"/>
       <c r="D49" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2806,10 +7209,10 @@
       <c r="B50" s="6"/>
       <c r="C50" s="16"/>
       <c r="D50" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2823,10 +7226,10 @@
       <c r="B51" s="6"/>
       <c r="C51" s="16"/>
       <c r="D51" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2840,10 +7243,10 @@
       <c r="B52" s="6"/>
       <c r="C52" s="16"/>
       <c r="D52" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2857,10 +7260,10 @@
       <c r="B53" s="6"/>
       <c r="C53" s="16"/>
       <c r="D53" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2874,10 +7277,10 @@
       <c r="B54" s="6"/>
       <c r="C54" s="16"/>
       <c r="D54" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2891,10 +7294,10 @@
       <c r="B55" s="6"/>
       <c r="C55" s="16"/>
       <c r="D55" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2908,10 +7311,10 @@
       <c r="B56" s="6"/>
       <c r="C56" s="16"/>
       <c r="D56" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2925,10 +7328,10 @@
       <c r="B57" s="6"/>
       <c r="C57" s="16"/>
       <c r="D57" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -2942,10 +7345,10 @@
       <c r="B58" s="6"/>
       <c r="C58" s="16"/>
       <c r="D58" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2959,10 +7362,10 @@
       <c r="B59" s="6"/>
       <c r="C59" s="16"/>
       <c r="D59" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -2976,10 +7379,10 @@
       <c r="B60" s="6"/>
       <c r="C60" s="16"/>
       <c r="D60" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2993,10 +7396,10 @@
       <c r="B61" s="6"/>
       <c r="C61" s="16"/>
       <c r="D61" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3010,10 +7413,10 @@
       <c r="B62" s="6"/>
       <c r="C62" s="16"/>
       <c r="D62" s="12" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -3027,10 +7430,10 @@
       <c r="B63" s="6"/>
       <c r="C63" s="16"/>
       <c r="D63" s="12" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -3044,10 +7447,10 @@
       <c r="B64" s="6"/>
       <c r="C64" s="16"/>
       <c r="D64" s="12" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -3061,10 +7464,10 @@
       <c r="B65" s="6"/>
       <c r="C65" s="16"/>
       <c r="D65" s="12" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -3078,10 +7481,10 @@
       <c r="B66" s="6"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -3095,10 +7498,10 @@
       <c r="B67" s="6"/>
       <c r="C67" s="19"/>
       <c r="D67" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -3112,10 +7515,10 @@
       <c r="B68" s="6"/>
       <c r="C68" s="19"/>
       <c r="D68" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -3129,10 +7532,10 @@
       <c r="B69" s="6"/>
       <c r="C69" s="19"/>
       <c r="D69" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -3146,10 +7549,10 @@
       <c r="B70" s="6"/>
       <c r="C70" s="19"/>
       <c r="D70" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -3163,10 +7566,10 @@
       <c r="B71" s="6"/>
       <c r="C71" s="19"/>
       <c r="D71" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -3180,10 +7583,10 @@
       <c r="B72" s="6"/>
       <c r="C72" s="19"/>
       <c r="D72" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -3197,10 +7600,10 @@
       <c r="B73" s="6"/>
       <c r="C73" s="19"/>
       <c r="D73" s="12" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -3214,10 +7617,10 @@
       <c r="B74" s="6"/>
       <c r="C74" s="19"/>
       <c r="D74" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -3231,10 +7634,10 @@
       <c r="B75" s="6"/>
       <c r="C75" s="19"/>
       <c r="D75" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -3248,10 +7651,10 @@
       <c r="B76" s="6"/>
       <c r="C76" s="19"/>
       <c r="D76" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -3265,10 +7668,10 @@
       <c r="B77" s="6"/>
       <c r="C77" s="19"/>
       <c r="D77" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -3282,10 +7685,10 @@
       <c r="B78" s="6"/>
       <c r="C78" s="19"/>
       <c r="D78" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -3299,10 +7702,10 @@
       <c r="B79" s="6"/>
       <c r="C79" s="19"/>
       <c r="D79" s="12" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -3316,10 +7719,10 @@
       <c r="B80" s="6"/>
       <c r="C80" s="19"/>
       <c r="D80" s="12" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -3333,10 +7736,10 @@
       <c r="B81" s="6"/>
       <c r="C81" s="19"/>
       <c r="D81" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -3350,10 +7753,10 @@
       <c r="B82" s="6"/>
       <c r="C82" s="19"/>
       <c r="D82" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -3367,10 +7770,10 @@
       <c r="B83" s="6"/>
       <c r="C83" s="19"/>
       <c r="D83" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -3384,10 +7787,10 @@
       <c r="B84" s="6"/>
       <c r="C84" s="19"/>
       <c r="D84" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -3401,10 +7804,10 @@
       <c r="B85" s="6"/>
       <c r="C85" s="19"/>
       <c r="D85" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -3418,10 +7821,10 @@
       <c r="B86" s="6"/>
       <c r="C86" s="19"/>
       <c r="D86" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3435,10 +7838,10 @@
       <c r="B87" s="6"/>
       <c r="C87" s="19"/>
       <c r="D87" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -3452,10 +7855,10 @@
       <c r="B88" s="6"/>
       <c r="C88" s="19"/>
       <c r="D88" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -3469,10 +7872,10 @@
       <c r="B89" s="6"/>
       <c r="C89" s="19"/>
       <c r="D89" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>213</v>
+        <v>309</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -3486,10 +7889,10 @@
       <c r="B90" s="6"/>
       <c r="C90" s="19"/>
       <c r="D90" s="12" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3503,10 +7906,10 @@
       <c r="B91" s="6"/>
       <c r="C91" s="19"/>
       <c r="D91" s="12" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3520,10 +7923,10 @@
       <c r="B92" s="6"/>
       <c r="C92" s="19"/>
       <c r="D92" s="12" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3537,10 +7940,10 @@
       <c r="B93" s="6"/>
       <c r="C93" s="19"/>
       <c r="D93" s="12" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3554,10 +7957,10 @@
       <c r="B94" s="6"/>
       <c r="C94" s="16"/>
       <c r="D94" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -3571,10 +7974,10 @@
       <c r="B95" s="6"/>
       <c r="C95" s="19"/>
       <c r="D95" s="12" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3588,10 +7991,10 @@
       <c r="B96" s="6"/>
       <c r="C96" s="19"/>
       <c r="D96" s="12" t="s">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3605,10 +8008,10 @@
       <c r="B97" s="6"/>
       <c r="C97" s="16"/>
       <c r="D97" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -3622,10 +8025,10 @@
       <c r="B98" s="6"/>
       <c r="C98" s="19"/>
       <c r="D98" s="12" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -3639,10 +8042,10 @@
       <c r="B99" s="6"/>
       <c r="C99" s="19"/>
       <c r="D99" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -3656,10 +8059,10 @@
       <c r="B100" s="6"/>
       <c r="C100" s="19"/>
       <c r="D100" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -3673,10 +8076,10 @@
       <c r="B101" s="6"/>
       <c r="C101" s="19"/>
       <c r="D101" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -3690,10 +8093,10 @@
       <c r="B102" s="6"/>
       <c r="C102" s="19"/>
       <c r="D102" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -3707,10 +8110,10 @@
       <c r="B103" s="6"/>
       <c r="C103" s="19"/>
       <c r="D103" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -3724,10 +8127,10 @@
       <c r="B104" s="6"/>
       <c r="C104" s="19"/>
       <c r="D104" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -3741,10 +8144,10 @@
       <c r="B105" s="6"/>
       <c r="C105" s="19"/>
       <c r="D105" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -3758,10 +8161,10 @@
       <c r="B106" s="6"/>
       <c r="C106" s="19"/>
       <c r="D106" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -3775,10 +8178,10 @@
       <c r="B107" s="6"/>
       <c r="C107" s="19"/>
       <c r="D107" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -3792,10 +8195,10 @@
       <c r="B108" s="6"/>
       <c r="C108" s="19"/>
       <c r="D108" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -3809,10 +8212,10 @@
       <c r="B109" s="6"/>
       <c r="C109" s="19"/>
       <c r="D109" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -3826,10 +8229,10 @@
       <c r="B110" s="6"/>
       <c r="C110" s="19"/>
       <c r="D110" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -3843,10 +8246,10 @@
       <c r="B111" s="6"/>
       <c r="C111" s="19"/>
       <c r="D111" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -3860,10 +8263,10 @@
       <c r="B112" s="6"/>
       <c r="C112" s="19"/>
       <c r="D112" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -3877,7 +8280,7 @@
       <c r="B113" s="6"/>
       <c r="C113" s="19"/>
       <c r="D113" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="6"/>
@@ -3892,7 +8295,7 @@
       <c r="B114" s="6"/>
       <c r="C114" s="19"/>
       <c r="D114" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
@@ -3907,7 +8310,7 @@
       <c r="B115" s="6"/>
       <c r="C115" s="19"/>
       <c r="D115" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
@@ -3922,7 +8325,7 @@
       <c r="B116" s="6"/>
       <c r="C116" s="19"/>
       <c r="D116" s="12" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
@@ -3937,7 +8340,7 @@
       <c r="B117" s="6"/>
       <c r="C117" s="19"/>
       <c r="D117" s="12" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6"/>
@@ -3952,7 +8355,7 @@
       <c r="B118" s="6"/>
       <c r="C118" s="19"/>
       <c r="D118" s="12" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="6"/>
@@ -3967,7 +8370,7 @@
       <c r="B119" s="6"/>
       <c r="C119" s="19"/>
       <c r="D119" s="12" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="6"/>
@@ -3982,7 +8385,7 @@
       <c r="B120" s="6"/>
       <c r="C120" s="19"/>
       <c r="D120" s="12" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="6"/>
@@ -3997,7 +8400,7 @@
       <c r="B121" s="6"/>
       <c r="C121" s="19"/>
       <c r="D121" s="12" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
@@ -4012,7 +8415,7 @@
       <c r="B122" s="6"/>
       <c r="C122" s="19"/>
       <c r="D122" s="12" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
@@ -4027,7 +8430,7 @@
       <c r="B123" s="6"/>
       <c r="C123" s="19"/>
       <c r="D123" s="12" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
@@ -4042,7 +8445,7 @@
       <c r="B124" s="6"/>
       <c r="C124" s="19"/>
       <c r="D124" s="12" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
@@ -4057,7 +8460,7 @@
       <c r="B125" s="6"/>
       <c r="C125" s="19"/>
       <c r="D125" s="12" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="6"/>
@@ -4072,7 +8475,7 @@
       <c r="B126" s="6"/>
       <c r="C126" s="19"/>
       <c r="D126" s="12" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
@@ -4087,7 +8490,7 @@
       <c r="B127" s="6"/>
       <c r="C127" s="19"/>
       <c r="D127" s="12" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
@@ -4102,7 +8505,7 @@
       <c r="B128" s="6"/>
       <c r="C128" s="19"/>
       <c r="D128" s="12" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="6"/>
@@ -4117,7 +8520,7 @@
       <c r="B129" s="6"/>
       <c r="C129" s="19"/>
       <c r="D129" s="12" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="6"/>
@@ -4132,7 +8535,7 @@
       <c r="B130" s="6"/>
       <c r="C130" s="19"/>
       <c r="D130" s="12" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="6"/>
@@ -4147,7 +8550,7 @@
       <c r="B131" s="6"/>
       <c r="C131" s="19"/>
       <c r="D131" s="12" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="6"/>
@@ -4162,7 +8565,7 @@
       <c r="B132" s="6"/>
       <c r="C132" s="19"/>
       <c r="D132" s="12" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="6"/>
@@ -4177,7 +8580,7 @@
       <c r="B133" s="6"/>
       <c r="C133" s="19"/>
       <c r="D133" s="12" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="6"/>
